--- a/Warehouse/DB/judgement_logs_run4o.xlsx
+++ b/Warehouse/DB/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision made by the committee is to acquire the rights to both movies, “Barbie” and “Oppenheimer,” as they will be presenting both films to the broader PTA for consideration.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming movie screening.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for showing "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the senior event this Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the student event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" based on the committee's consensus to show it during the upcoming event.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show **"Barbie"** for Friday's event.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to present both films for discussion and evaluation by the parents.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's discussions and their inclination towards a film that fosters meaningful dialogues among the students.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown during the upcoming senior event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded. The movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie event on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming senior event on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming Friday event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the graduation assembly on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming graduation assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation assembly.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday event.
+MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" as the movie to be shown on Friday has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the high school graduation assembly.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer." This film will be shown at the event, aligning with the committee's focus on promoting critical thinking among students.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to “Barbie” for the screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" based on the committee's discussions and its alignment with the students' interests and experiences.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights to show "Barbie" at the event.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming student assembly.
+MSG: The decision has been made to acquire the public performance rights for "Oppenheimer" as the selected movie for the upcoming event.
 </t>
         </is>
       </c>

--- a/Warehouse/DB/judgement_logs_run4o.xlsx
+++ b/Warehouse/DB/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision for Friday's movie has ended without a selection.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming movie screening.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" based on the committee's consensus to show it during the upcoming event.
+MSG: The decision has been recorded; the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to select a movie for Friday has not been made, and the conversation ended without any explicit agreement on a film.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to present both films for discussion and evaluation by the parents.
+MSG: The decision-making process ended without a clear choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire a movie for Friday has ended without a resolution.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been made, so the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about Friday’s movie cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for the movie "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly on Friday.
+MSG: The function has been successfully called, indicating that no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that there was no agreement reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, so I have called the function for no decision.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision," indicating that no movie was explicitly chosen in the meeting.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown during the upcoming senior event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The rights to both movies have been acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been logged as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and there will be no movie selected for Friday at this time.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie event on Friday.
+MSG: The decision to acquire rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation did not lead to a clear decision regarding which movie to show on Friday, so the outcome is classified as no decision made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday. If you need any further assistance, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming senior event on Friday.
+MSG: The decision regarding the movie has been recorded, and no selection was made.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the graduation assembly on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday's assembly.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation assembly.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded and the function has been called successfully. There is no selected movie for Friday, as the committee did not reach a decision.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the high school graduation assembly.
+MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming assembly.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no movie selection was made during the meeting.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" based on the committee's discussions and its alignment with the students' interests and experiences.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision from the committee is that no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" at the event.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Oppenheimer" as the selected movie for the upcoming event.
+MSG: The decision process has concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DB/judgement_logs_run4o.xlsx
+++ b/Warehouse/DB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie has ended without a selection.
+MSG: The decision has been recorded with no agreement reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
+MSG: The decision about which movie to show on Friday has resulted in no agreement. Thus, the process concludes without a definitive choice.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday's showing.
+MSG: The decision regarding the movie to show on Friday resulted in no consensus.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie cannot be made at this time.
+MSG: The decision was to not acquire any movie rights for Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The rights to "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for showing on Friday.
+MSG: The decision process concluded without reaching an agreement on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I've recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded; the movie "Barbie" will be shown on Friday.
+MSG: The decision has been recorded successfully, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday has not been made, and the conversation ended without any explicit agreement on a film.
+MSG: The decision to acquire a movie for Friday's showing ended without any specific agreement on which movie to select. Therefore, no decision was made.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear choice for Friday's movie, resulting in no decision being made.
+MSG: The committee did not reach a decision regarding the movie for Friday, resulting in no agreement on a selection.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday has ended without a resolution.
+MSG: The decision to show a movie on Friday wasn't made, indicating that there was no consensus. The function for no decision has been executed successfully.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made, so the outcome is recorded as "no decision."
+MSG: The decision has been recorded as "no decision" due to the lack of agreement among the committee members regarding a specific movie to show on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday’s movie cannot be made at this time.
+MSG: The decision regarding the movie to be shown on Friday has concluded without a specific choice being made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for the movie "Barbie" have been successfully acquired.
+MSG: The decision to acquire rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called, indicating that no decision was made regarding which movie to show on Friday.
+MSG: The decision-making process did not result in a clear choice for Friday's movie. Thus, no acquisition will be made at this time.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that there was no agreement reached on which movie to show on Friday.
+MSG: The decision has been recorded indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie was made during the discussion.
+MSG: No decision has been made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, so I have called the function for no decision.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected.
+MSG: The decision process has concluded without a choice of movie for Friday. No further action is needed.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision," indicating that no movie was explicitly chosen in the meeting.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights to "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for showing on Friday.
+MSG: The decision to show "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire the rights to both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been logged as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, confirming that no choice of a movie is possible from this discussion.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there will be no movie selected for Friday at this time.
+MSG: It seems a decision about Friday’s movie could not be made. Please let me know if there's anything else you need or if you'd like to continue with this discussion!
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on which movie to show on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not lead to a clear decision regarding which movie to show on Friday, so the outcome is classified as no decision made.
+MSG: The decision about which movie to play on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday. If you need any further assistance, feel free to ask!
+MSG: The decision has been recorded, indicating that no agreement was reached on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie has been recorded, and no selection was made.
+MSG: The decision for Friday's movie could not be made, resulting in no acquisition of rights.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
+MSG: The decision regarding which movie to acquire rights for has resulted in a no decision outcome.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: I recorded the decision as no decision was made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no movie being selected for Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday's assembly.
+MSG: The decision-making process ended without a conclusive choice for the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: No decision has been made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the function has been called successfully. There is no selected movie for Friday, as the committee did not reach a decision.
+MSG: The decision has been recorded, indicating that no choice of a movie was made for Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, reflecting that no movie was selected.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded with the function indicating that no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made during the meeting.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, leading to the function for no decision being called successfully.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded that "Barbie" has been selected for the showing on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision from the committee is that no movie has been selected for Friday.
+MSG: The decision process resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The decision-making process regarding the movie selection has concluded without reaching an agreement.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without an agreement on which movie to show on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DB/judgement_logs_run4o.xlsx
+++ b/Warehouse/DB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;28;54.json</t>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;36;36.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement reached on which movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday remains undecided.
 </t>
         </is>
       </c>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;45;26.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;28;54.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement. Thus, the process concludes without a definitive choice.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;42;56.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;45;26.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;59;10.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_13;59;01.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday resulted in no consensus.
+MSG: The decision about which movie to show on Friday was not made, so I have recorded a no-decision outcome.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;43;04.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;52;03.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;27;12.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;45;46.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to not acquire any movie rights for Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;52;32.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;42;56.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;53;25.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_13;59;49.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;34;21.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;59;10.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been acquired for Friday's showing.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;58;29.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;51;09.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching an agreement on the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday was not finalized, so I have noted that there was no decision made. If there are any further discussions or if the committee reaches a consensus in the future, that will be taken into account then.
 </t>
         </is>
       </c>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;48;57.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;43;04.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;54;16.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;27;12.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully, and "Barbie" will be shown on Friday.
+MSG: The decision has been recorded as no consensus was reached regarding a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;01;27.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;52;32.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday's showing ended without any specific agreement on which movie to select. Therefore, no decision was made.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's show.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;36;10.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;02;17.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie for Friday, resulting in no agreement on a selection.
+MSG: The conversation ended without a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;02;54.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;53;25.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday wasn't made, indicating that there was no consensus. The function for no decision has been executed successfully.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;25;08.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;34;21.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" due to the lack of agreement among the committee members regarding a specific movie to show on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;32;26.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;58;29.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has concluded without a specific choice being made.
+MSG: The committee has not made a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;02;06.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;48;57.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been recorded successfully.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;16;46.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;00;20.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a clear choice for Friday's movie. Thus, no acquisition will be made at this time.
+MSG: The decision process did not result in a selection for Friday's movie, confirming that no decision was made.
 </t>
         </is>
       </c>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;45;29.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;54;16.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded indicating that no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;03;41.json</t>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;42;03.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
+MSG: The decision regarding the movie for Friday was not made successfully.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;48;20.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;54;59.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision has been made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;44;42.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;39;07.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision has been recorded, indicating that there was no consensus on a movie for Friday.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;39;36.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;01;27.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a choice of movie for Friday. No further action is needed.
+MSG: The decision regarding the movie for Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;31;32.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;43;30.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision regarding which movie to show on Friday has not been finalized.
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;26;11.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;36;10.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Oppenheimer" has been made.
+MSG: The decision led to no movie being chosen for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;15;36.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;02;54.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the showing on Friday.
+MSG: The decision about which movie to show on Friday was not reached during the discussion. Therefore, I will call the no_decision function to reflect this outcome.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;42;05.json</t>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;37;10.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been recorded successfully.
+MSG: The decision has been recorded as no decision on the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;20;26.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;44;22.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to both movies has been successfully recorded.
+MSG: The decision has been recorded, and there will be no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;36;51.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;25;08.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded as no movie selection was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;47;11.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;49;57.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, confirming that no choice of a movie is possible from this discussion.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;28;07.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;46;52.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems a decision about Friday’s movie could not be made. Please let me know if there's anything else you need or if you'd like to continue with this discussion!
+MSG: The decision regarding the movie to be shown on Friday has been recorded, indicating that no choice was made.
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;29;49.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;32;26.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision regarding the movie to be shown on Friday has ended without reaching an agreement.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;56;22.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;02;06.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights to the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;33;34.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;16;46.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday has not been made.
+MSG: The decision regarding the movie for Friday was not reached.
 </t>
         </is>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;07;48.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;45;29.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached on the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;41;07.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;03;41.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie could not be made, resulting in no acquisition of rights.
+MSG: The decision to show "Barbie" on Friday has been recorded.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;44;02.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;48;20.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire rights for has resulted in a no decision outcome.
+MSG: The decision to acquire a movie for Friday was not reached, as the conversation ended without a consensus.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;51;34.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;44;42.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I recorded the decision as no decision was made about the movie to be shown on Friday.
+MSG: The decision was made not to select a movie for Friday.
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;06;41.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;01;26.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The committee has not reached a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;05;36.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;39;36.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a conclusive choice for the movie to show on Friday.
+MSG: The committee did not reach a decision on which movie to show on Friday, so I have recorded that outcome.
 </t>
         </is>
       </c>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;41;47.json</t>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;39;03.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie for Friday.
+MSG: It appears there was no clear decision made regarding which movie to show on Friday, so I must classify this outcome as having no decision.
 </t>
         </is>
       </c>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;46;12.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;31;32.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision has been made regarding the movie for Friday.
+MSG: The decision has been recorded, indicating that no choice of a movie is possible at this time.
 </t>
         </is>
       </c>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;21;25.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;56;08.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice of a movie was made for Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;04;38.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;53;41.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, reflecting that no movie was selected.
+MSG: The conversation ended without a clear decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;37;43.json</t>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;40;32.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with the function indicating that no agreement was reached regarding the movie selection for Friday.
+MSG: I have recorded the decision: no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;43;53.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;00;59.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
+MSG: The decision has been recorded as "no_decision." If you need further assistance or information, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;23;57.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;26;11.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;35;12.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;15;36.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, leading to the function for no decision being called successfully.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;47;47.json</t>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;03;08.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded that "Barbie" has been selected for the showing on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;18;22.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;42;05.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no agreement about which movie to show on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;55;31.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;20;26.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;46;42.json</t>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;36;51.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process regarding the movie selection has concluded without reaching an agreement.
+MSG: The committee did not arrive at a decision regarding a movie to show on Friday, so the selection process remains open-ended.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;38;32.json</t>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;40;15.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer."
+MSG: The decision process has concluded without a choice of movie for Friday, and the function for no decision has been called accordingly.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;39;52.json</t>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;47;11.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,897 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;48;52.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for the movie "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;28;07.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no choice made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;41;03.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;29;49.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_13;48;57.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;56;22.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not arrive at a decision regarding which movie to acquire for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;33;34.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to show on Friday could not be reached, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_14;03;53.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a selection for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;07;48.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no conclusion was reached about which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;39;52.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;55;31.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;42;22.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_13;48;10.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;37;36.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process has concluded with no agreement on which movie to show.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;41;07.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;35;32.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday as no agreement was reached.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;44;02.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee could not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;51;34.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday has resulted in no consensus, so no further action will be taken.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;06;41.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected. If there's anything else you need, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;05;36.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;38;23.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;41;47.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;46;12.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;21;25.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;41;34.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_14;04;38.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a choice for Friday’s movie.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_16_2025 at_13;56;48.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;37;43.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a clear choice for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;43;53.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not result in a clear selection for Friday's movie. Therefore, the decision options will not be pursued further at this time.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;23;57.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;35;12.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;47;47.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the event.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_12_2025 at_20;43;00.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;18;22.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday was not made, as there was no consensus between the committee members.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;55;31.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: "Barbie" has been selected as the movie to acquire rights for.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;46;42.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in a selection for Friday's movie, and thus, no further action is taken.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;38;32.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;33;41.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: A decision has been recorded, indicating that the committee could not reach an agreement on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_08_11_2025 at_15;39;32.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/DB/run4o_discovery_04_28_2025 at_13;39;52.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for the movie "Barbie" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/DB/run4o_discovery_05_02_2025 at_02;40;45.json</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
-</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
